--- a/final_corrected_data.xlsx
+++ b/final_corrected_data.xlsx
@@ -4874,7 +4874,7 @@
         <v>167</v>
       </c>
       <c r="CL9" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="CM9">
         <v>0</v>

--- a/final_corrected_data.xlsx
+++ b/final_corrected_data.xlsx
@@ -22177,13 +22177,13 @@
         <v>148</v>
       </c>
       <c r="W52" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="X52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -22575,10 +22575,10 @@
         <v>148</v>
       </c>
       <c r="W53" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="X53" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="Y53">
         <v>0</v>

--- a/final_corrected_data.xlsx
+++ b/final_corrected_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6939" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6945" uniqueCount="410">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -7379,22 +7379,22 @@
         <v>150</v>
       </c>
       <c r="W15" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="X15" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="Y15" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="Z15" t="s">
         <v>253</v>
       </c>
       <c r="AA15" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>215</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -7568,43 +7568,43 @@
         <v>0</v>
       </c>
       <c r="CI15" t="s">
+        <v>215</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>215</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>215</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>215</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>215</v>
+      </c>
+      <c r="CN15">
+        <v>0</v>
+      </c>
+      <c r="CO15">
+        <v>0</v>
+      </c>
+      <c r="CP15">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="s">
         <v>200</v>
       </c>
-      <c r="CJ15" t="s">
+      <c r="CR15" t="s">
         <v>256</v>
       </c>
-      <c r="CK15" t="s">
+      <c r="CS15" t="s">
         <v>169</v>
       </c>
-      <c r="CL15" t="s">
+      <c r="CT15" t="s">
         <v>253</v>
       </c>
-      <c r="CM15" t="s">
+      <c r="CU15" t="s">
         <v>253</v>
-      </c>
-      <c r="CN15">
-        <v>0</v>
-      </c>
-      <c r="CO15">
-        <v>0</v>
-      </c>
-      <c r="CP15">
-        <v>0</v>
-      </c>
-      <c r="CQ15">
-        <v>0</v>
-      </c>
-      <c r="CR15">
-        <v>0</v>
-      </c>
-      <c r="CS15">
-        <v>0</v>
-      </c>
-      <c r="CT15">
-        <v>0</v>
-      </c>
-      <c r="CU15">
-        <v>0</v>
       </c>
       <c r="CV15">
         <v>0</v>

--- a/final_corrected_data.xlsx
+++ b/final_corrected_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7224" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7225" uniqueCount="416">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -1258,9 +1258,6 @@
     <t>00068</t>
   </si>
   <si>
-    <t>2026</t>
-  </si>
-  <si>
     <t>Static</t>
   </si>
   <si>
@@ -2861,7 +2858,7 @@
         <v>151</v>
       </c>
       <c r="EK3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:141">
@@ -3262,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="EJ4" t="s">
-        <v>414</v>
+        <v>151</v>
       </c>
       <c r="EK4">
         <v>0</v>
@@ -9058,7 +9055,7 @@
         <v>256</v>
       </c>
       <c r="AH19" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="AI19" t="s">
         <v>203</v>
@@ -9105,8 +9102,8 @@
       <c r="AW19">
         <v>0</v>
       </c>
-      <c r="AX19">
-        <v>0</v>
+      <c r="AX19" t="s">
+        <v>217</v>
       </c>
       <c r="AY19">
         <v>0</v>
@@ -11387,7 +11384,7 @@
         <v>151</v>
       </c>
       <c r="EK24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:141">
@@ -11785,7 +11782,7 @@
         <v>151</v>
       </c>
       <c r="EK25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:141">
@@ -12189,7 +12186,7 @@
         <v>151</v>
       </c>
       <c r="EK26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:141">
@@ -12587,7 +12584,7 @@
         <v>151</v>
       </c>
       <c r="EK27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="1:141">
@@ -12985,7 +12982,7 @@
         <v>151</v>
       </c>
       <c r="EK28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:141">
@@ -13383,7 +13380,7 @@
         <v>151</v>
       </c>
       <c r="EK29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:141">
@@ -13784,7 +13781,7 @@
         <v>151</v>
       </c>
       <c r="EK30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:141">
@@ -14194,7 +14191,7 @@
         <v>151</v>
       </c>
       <c r="EK31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" spans="1:141">
@@ -17028,7 +17025,7 @@
         <v>151</v>
       </c>
       <c r="EK38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="39" spans="1:141">
@@ -23151,7 +23148,7 @@
         <v>151</v>
       </c>
       <c r="EK53" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54" spans="1:141">
@@ -23549,7 +23546,7 @@
         <v>151</v>
       </c>
       <c r="EK54" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55" spans="1:141">
@@ -23947,7 +23944,7 @@
         <v>151</v>
       </c>
       <c r="EK55" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56" spans="1:141">
@@ -24345,7 +24342,7 @@
         <v>151</v>
       </c>
       <c r="EK56" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="57" spans="1:141">
@@ -24743,7 +24740,7 @@
         <v>151</v>
       </c>
       <c r="EK57" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="58" spans="1:141">
@@ -25141,7 +25138,7 @@
         <v>151</v>
       </c>
       <c r="EK58" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="59" spans="1:141">
@@ -25539,7 +25536,7 @@
         <v>151</v>
       </c>
       <c r="EK59" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="1:141">
@@ -36031,7 +36028,7 @@
         <v>151</v>
       </c>
       <c r="EK85" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="86" spans="1:141">
@@ -36429,7 +36426,7 @@
         <v>151</v>
       </c>
       <c r="EK86" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87" spans="1:141">
@@ -36827,7 +36824,7 @@
         <v>151</v>
       </c>
       <c r="EK87" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="88" spans="1:141">
@@ -37225,7 +37222,7 @@
         <v>151</v>
       </c>
       <c r="EK88" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89" spans="1:141">
@@ -37623,7 +37620,7 @@
         <v>151</v>
       </c>
       <c r="EK89" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="90" spans="1:141">
@@ -38024,7 +38021,7 @@
         <v>151</v>
       </c>
       <c r="EK90" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="91" spans="1:141">
@@ -38422,7 +38419,7 @@
         <v>151</v>
       </c>
       <c r="EK91" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="92" spans="1:141">
@@ -38820,7 +38817,7 @@
         <v>151</v>
       </c>
       <c r="EK92" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="93" spans="1:141">
@@ -39221,7 +39218,7 @@
         <v>151</v>
       </c>
       <c r="EK93" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="94" spans="1:141">
@@ -44386,7 +44383,7 @@
         <v>151</v>
       </c>
       <c r="EK106" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="107" spans="1:141">
@@ -44784,7 +44781,7 @@
         <v>151</v>
       </c>
       <c r="EK107" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="108" spans="1:141">
@@ -45185,7 +45182,7 @@
         <v>151</v>
       </c>
       <c r="EK108" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="109" spans="1:141">
@@ -45583,7 +45580,7 @@
         <v>151</v>
       </c>
       <c r="EK109" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="110" spans="1:141">
@@ -45981,7 +45978,7 @@
         <v>151</v>
       </c>
       <c r="EK110" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="111" spans="1:141">
@@ -46379,7 +46376,7 @@
         <v>151</v>
       </c>
       <c r="EK111" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="112" spans="1:141">
@@ -46777,7 +46774,7 @@
         <v>151</v>
       </c>
       <c r="EK112" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="113" spans="1:141">
@@ -47175,7 +47172,7 @@
         <v>151</v>
       </c>
       <c r="EK113" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="114" spans="1:141">
@@ -47573,7 +47570,7 @@
         <v>151</v>
       </c>
       <c r="EK114" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="115" spans="1:141">
@@ -48797,7 +48794,7 @@
         <v>151</v>
       </c>
       <c r="EK117" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="118" spans="1:141">
@@ -49198,7 +49195,7 @@
         <v>151</v>
       </c>
       <c r="EK118" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="119" spans="1:141">
@@ -51239,7 +51236,7 @@
         <v>151</v>
       </c>
       <c r="EK123" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="124" spans="1:141">
@@ -51634,7 +51631,7 @@
         <v>151</v>
       </c>
       <c r="EK124" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="125" spans="1:141">
@@ -52032,7 +52029,7 @@
         <v>151</v>
       </c>
       <c r="EK125" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="126" spans="1:141">
@@ -52430,7 +52427,7 @@
         <v>151</v>
       </c>
       <c r="EK126" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="127" spans="1:141">
@@ -52828,7 +52825,7 @@
         <v>151</v>
       </c>
       <c r="EK127" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="128" spans="1:141">
@@ -53226,7 +53223,7 @@
         <v>151</v>
       </c>
       <c r="EK128" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="129" spans="1:141">
@@ -53624,7 +53621,7 @@
         <v>151</v>
       </c>
       <c r="EK129" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="130" spans="1:141">
@@ -54022,7 +54019,7 @@
         <v>151</v>
       </c>
       <c r="EK130" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="131" spans="1:141">
@@ -54420,7 +54417,7 @@
         <v>151</v>
       </c>
       <c r="EK131" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="132" spans="1:141">
@@ -54818,7 +54815,7 @@
         <v>151</v>
       </c>
       <c r="EK132" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="133" spans="1:141">
@@ -55216,7 +55213,7 @@
         <v>151</v>
       </c>
       <c r="EK133" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="134" spans="1:141">
@@ -55614,7 +55611,7 @@
         <v>151</v>
       </c>
       <c r="EK134" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="135" spans="1:141">
@@ -56012,7 +56009,7 @@
         <v>151</v>
       </c>
       <c r="EK135" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="136" spans="1:141">
@@ -56410,7 +56407,7 @@
         <v>151</v>
       </c>
       <c r="EK136" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="137" spans="1:141">
@@ -56808,7 +56805,7 @@
         <v>151</v>
       </c>
       <c r="EK137" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="138" spans="1:141">
@@ -57233,7 +57230,7 @@
         <v>151</v>
       </c>
       <c r="EK138" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="139" spans="1:141">
@@ -57631,7 +57628,7 @@
         <v>151</v>
       </c>
       <c r="EK139" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="140" spans="1:141">
@@ -58035,7 +58032,7 @@
         <v>151</v>
       </c>
       <c r="EK140" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="141" spans="1:141">
@@ -58433,7 +58430,7 @@
         <v>151</v>
       </c>
       <c r="EK141" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/final_corrected_data.xlsx
+++ b/final_corrected_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7225" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7217" uniqueCount="416">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -787,10 +787,10 @@
     <t>3</t>
   </si>
   <si>
-    <t>4</t>
+    <t>2</t>
   </si>
   <si>
-    <t>2</t>
+    <t>4</t>
   </si>
   <si>
     <t>64</t>
@@ -2528,7 +2528,7 @@
         <v>177</v>
       </c>
       <c r="Z3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>177</v>
       </c>
       <c r="BO3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP3" t="s">
         <v>217</v>
@@ -2693,7 +2693,7 @@
         <v>177</v>
       </c>
       <c r="CD3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CE3">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>202</v>
       </c>
       <c r="X4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y4" t="s">
         <v>216</v>
@@ -3055,7 +3055,7 @@
         <v>202</v>
       </c>
       <c r="BM4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN4" t="s">
         <v>216</v>
@@ -3097,7 +3097,7 @@
         <v>202</v>
       </c>
       <c r="CB4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CC4" t="s">
         <v>216</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="EF4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="EG4" t="s">
         <v>217</v>
@@ -3336,7 +3336,7 @@
         <v>193</v>
       </c>
       <c r="X5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y5" t="s">
         <v>174</v>
@@ -3459,7 +3459,7 @@
         <v>193</v>
       </c>
       <c r="BM5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN5" t="s">
         <v>174</v>
@@ -3501,7 +3501,7 @@
         <v>193</v>
       </c>
       <c r="CB5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CC5" t="s">
         <v>174</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="AG7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH7" t="s">
         <v>181</v>
@@ -4566,7 +4566,7 @@
         <v>193</v>
       </c>
       <c r="Y8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -4596,7 +4596,7 @@
         <v>169</v>
       </c>
       <c r="AI8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -4689,7 +4689,7 @@
         <v>193</v>
       </c>
       <c r="BN8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BO8" t="s">
         <v>217</v>
@@ -4755,7 +4755,7 @@
         <v>193</v>
       </c>
       <c r="CK8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CL8">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="DC8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="DD8">
         <v>0</v>
@@ -7008,7 +7008,7 @@
         <v>197</v>
       </c>
       <c r="Y14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -7038,7 +7038,7 @@
         <v>178</v>
       </c>
       <c r="AI14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AJ14">
         <v>0</v>
@@ -7131,7 +7131,7 @@
         <v>197</v>
       </c>
       <c r="BN14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BO14" t="s">
         <v>217</v>
@@ -7197,7 +7197,7 @@
         <v>197</v>
       </c>
       <c r="CK14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CL14">
         <v>0</v>
@@ -7409,7 +7409,7 @@
         <v>202</v>
       </c>
       <c r="Y15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -7439,7 +7439,7 @@
         <v>202</v>
       </c>
       <c r="AI15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AJ15">
         <v>0</v>
@@ -7804,10 +7804,10 @@
         <v>150</v>
       </c>
       <c r="W16" t="s">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c r="X16" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="Y16" t="s">
         <v>257</v>
@@ -7815,14 +7815,14 @@
       <c r="Z16">
         <v>0</v>
       </c>
-      <c r="AA16" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>217</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>216</v>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -7837,13 +7837,13 @@
         <v>217</v>
       </c>
       <c r="AH16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AI16" t="s">
         <v>257</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>258</v>
+      <c r="AJ16">
+        <v>0</v>
       </c>
       <c r="AK16">
         <v>0</v>
@@ -7851,8 +7851,8 @@
       <c r="AL16">
         <v>0</v>
       </c>
-      <c r="AM16" t="s">
-        <v>217</v>
+      <c r="AM16">
+        <v>0</v>
       </c>
       <c r="AN16">
         <v>0</v>
@@ -7899,8 +7899,8 @@
       <c r="BB16">
         <v>0</v>
       </c>
-      <c r="BC16" t="s">
-        <v>217</v>
+      <c r="BC16">
+        <v>0</v>
       </c>
       <c r="BD16">
         <v>0</v>
@@ -7927,16 +7927,16 @@
         <v>0</v>
       </c>
       <c r="BL16" t="s">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c r="BM16" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="BN16" t="s">
         <v>257</v>
       </c>
       <c r="BO16" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="BP16" t="s">
         <v>217</v>
@@ -7945,7 +7945,7 @@
         <v>217</v>
       </c>
       <c r="BR16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BT16">
         <v>0</v>
@@ -7969,16 +7969,16 @@
         <v>0</v>
       </c>
       <c r="CA16" t="s">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c r="CB16" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="CC16" t="s">
         <v>257</v>
       </c>
-      <c r="CD16" t="s">
-        <v>258</v>
+      <c r="CD16">
+        <v>0</v>
       </c>
       <c r="CE16">
         <v>0</v>
@@ -7986,8 +7986,8 @@
       <c r="CF16">
         <v>0</v>
       </c>
-      <c r="CG16" t="s">
-        <v>216</v>
+      <c r="CG16">
+        <v>0</v>
       </c>
       <c r="CH16">
         <v>0</v>
@@ -8119,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="EF16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="EG16" t="s">
         <v>217</v>
@@ -8208,10 +8208,10 @@
         <v>216</v>
       </c>
       <c r="X17" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y17" t="s">
         <v>257</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>258</v>
       </c>
       <c r="Z17" t="s">
         <v>216</v>
@@ -8331,10 +8331,10 @@
         <v>216</v>
       </c>
       <c r="BM17" t="s">
+        <v>258</v>
+      </c>
+      <c r="BN17" t="s">
         <v>257</v>
-      </c>
-      <c r="BN17" t="s">
-        <v>258</v>
       </c>
       <c r="BO17" t="s">
         <v>216</v>
@@ -8421,10 +8421,10 @@
         <v>216</v>
       </c>
       <c r="CR17" t="s">
+        <v>258</v>
+      </c>
+      <c r="CS17" t="s">
         <v>257</v>
-      </c>
-      <c r="CS17" t="s">
-        <v>258</v>
       </c>
       <c r="CT17" t="s">
         <v>216</v>
@@ -8621,7 +8621,7 @@
         <v>216</v>
       </c>
       <c r="Y18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z18" t="s">
         <v>216</v>
@@ -8744,7 +8744,7 @@
         <v>216</v>
       </c>
       <c r="BN18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BO18" t="s">
         <v>216</v>
@@ -8828,13 +8828,13 @@
         <v>0</v>
       </c>
       <c r="CQ18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CR18" t="s">
         <v>216</v>
       </c>
       <c r="CS18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CT18" t="s">
         <v>216</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="EF18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="EG18" t="s">
         <v>217</v>
@@ -9031,7 +9031,7 @@
         <v>203</v>
       </c>
       <c r="Z19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -9061,7 +9061,7 @@
         <v>203</v>
       </c>
       <c r="AJ19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AK19">
         <v>0</v>
@@ -9154,7 +9154,7 @@
         <v>203</v>
       </c>
       <c r="BO19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP19" t="s">
         <v>217</v>
@@ -9244,7 +9244,7 @@
         <v>203</v>
       </c>
       <c r="CT19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CU19">
         <v>0</v>
@@ -9543,7 +9543,7 @@
         <v>202</v>
       </c>
       <c r="BM20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BN20" t="s">
         <v>174</v>
@@ -9633,7 +9633,7 @@
         <v>202</v>
       </c>
       <c r="CR20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CS20" t="s">
         <v>174</v>
@@ -9830,7 +9830,7 @@
         <v>256</v>
       </c>
       <c r="X21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y21" t="s">
         <v>216</v>
@@ -9953,7 +9953,7 @@
         <v>256</v>
       </c>
       <c r="BM21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN21" t="s">
         <v>216</v>
@@ -10043,7 +10043,7 @@
         <v>256</v>
       </c>
       <c r="CR21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CS21" t="s">
         <v>216</v>
@@ -10650,7 +10650,7 @@
         <v>202</v>
       </c>
       <c r="X23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y23" t="s">
         <v>202</v>
@@ -10773,7 +10773,7 @@
         <v>202</v>
       </c>
       <c r="BM23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN23" t="s">
         <v>202</v>
@@ -10863,7 +10863,7 @@
         <v>202</v>
       </c>
       <c r="CR23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CS23" t="s">
         <v>202</v>
@@ -11458,43 +11458,43 @@
         <v>203</v>
       </c>
       <c r="X25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y25" t="s">
         <v>256</v>
       </c>
       <c r="Z25" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG25" t="s">
         <v>257</v>
       </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>258</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>257</v>
       </c>
       <c r="AI25" t="s">
         <v>256</v>
       </c>
       <c r="AJ25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK25">
         <v>0</v>
@@ -11581,13 +11581,13 @@
         <v>203</v>
       </c>
       <c r="BM25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BN25" t="s">
         <v>256</v>
       </c>
       <c r="BO25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BP25" t="s">
         <v>217</v>
@@ -11623,76 +11623,76 @@
         <v>203</v>
       </c>
       <c r="CB25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CC25" t="s">
         <v>256</v>
       </c>
       <c r="CD25" t="s">
+        <v>258</v>
+      </c>
+      <c r="CE25">
+        <v>0</v>
+      </c>
+      <c r="CF25">
+        <v>0</v>
+      </c>
+      <c r="CG25">
+        <v>0</v>
+      </c>
+      <c r="CH25">
+        <v>0</v>
+      </c>
+      <c r="CI25">
+        <v>0</v>
+      </c>
+      <c r="CJ25">
+        <v>0</v>
+      </c>
+      <c r="CK25">
+        <v>0</v>
+      </c>
+      <c r="CL25">
+        <v>0</v>
+      </c>
+      <c r="CM25">
+        <v>0</v>
+      </c>
+      <c r="CN25">
+        <v>0</v>
+      </c>
+      <c r="CO25">
+        <v>0</v>
+      </c>
+      <c r="CP25">
+        <v>0</v>
+      </c>
+      <c r="CQ25">
+        <v>0</v>
+      </c>
+      <c r="CR25">
+        <v>0</v>
+      </c>
+      <c r="CS25">
+        <v>0</v>
+      </c>
+      <c r="CT25">
+        <v>0</v>
+      </c>
+      <c r="CU25">
+        <v>0</v>
+      </c>
+      <c r="CV25">
+        <v>0</v>
+      </c>
+      <c r="CW25">
+        <v>0</v>
+      </c>
+      <c r="CX25">
+        <v>0</v>
+      </c>
+      <c r="CY25" t="s">
         <v>257</v>
-      </c>
-      <c r="CE25">
-        <v>0</v>
-      </c>
-      <c r="CF25">
-        <v>0</v>
-      </c>
-      <c r="CG25">
-        <v>0</v>
-      </c>
-      <c r="CH25">
-        <v>0</v>
-      </c>
-      <c r="CI25">
-        <v>0</v>
-      </c>
-      <c r="CJ25">
-        <v>0</v>
-      </c>
-      <c r="CK25">
-        <v>0</v>
-      </c>
-      <c r="CL25">
-        <v>0</v>
-      </c>
-      <c r="CM25">
-        <v>0</v>
-      </c>
-      <c r="CN25">
-        <v>0</v>
-      </c>
-      <c r="CO25">
-        <v>0</v>
-      </c>
-      <c r="CP25">
-        <v>0</v>
-      </c>
-      <c r="CQ25">
-        <v>0</v>
-      </c>
-      <c r="CR25">
-        <v>0</v>
-      </c>
-      <c r="CS25">
-        <v>0</v>
-      </c>
-      <c r="CT25">
-        <v>0</v>
-      </c>
-      <c r="CU25">
-        <v>0</v>
-      </c>
-      <c r="CV25">
-        <v>0</v>
-      </c>
-      <c r="CW25">
-        <v>0</v>
-      </c>
-      <c r="CX25">
-        <v>0</v>
-      </c>
-      <c r="CY25" t="s">
-        <v>258</v>
       </c>
       <c r="CZ25">
         <v>0</v>
@@ -11859,10 +11859,10 @@
         <v>203</v>
       </c>
       <c r="Y26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA26" t="s">
         <v>216</v>
@@ -11883,7 +11883,7 @@
         <v>217</v>
       </c>
       <c r="AG26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH26" t="s">
         <v>203</v>
@@ -11982,10 +11982,10 @@
         <v>203</v>
       </c>
       <c r="BN26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BO26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BP26" t="s">
         <v>216</v>
@@ -12024,10 +12024,10 @@
         <v>203</v>
       </c>
       <c r="CC26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CD26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CE26" t="s">
         <v>216</v>
@@ -12090,7 +12090,7 @@
         <v>0</v>
       </c>
       <c r="CY26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CZ26">
         <v>0</v>
@@ -12263,7 +12263,7 @@
         <v>256</v>
       </c>
       <c r="Y27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -12293,7 +12293,7 @@
         <v>256</v>
       </c>
       <c r="AI27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AJ27">
         <v>0</v>
@@ -12386,7 +12386,7 @@
         <v>256</v>
       </c>
       <c r="BN27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BO27" t="s">
         <v>217</v>
@@ -12428,7 +12428,7 @@
         <v>256</v>
       </c>
       <c r="CC27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CD27">
         <v>0</v>
@@ -12664,7 +12664,7 @@
         <v>256</v>
       </c>
       <c r="Z28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -12694,7 +12694,7 @@
         <v>256</v>
       </c>
       <c r="AJ28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK28">
         <v>0</v>
@@ -12787,7 +12787,7 @@
         <v>256</v>
       </c>
       <c r="BO28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BP28" t="s">
         <v>217</v>
@@ -12829,7 +12829,7 @@
         <v>256</v>
       </c>
       <c r="CD28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CE28">
         <v>0</v>
@@ -12928,7 +12928,7 @@
         <v>217</v>
       </c>
       <c r="DS28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="DT28" t="s">
         <v>180</v>
@@ -13056,13 +13056,13 @@
         <v>190</v>
       </c>
       <c r="X29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y29" t="s">
         <v>174</v>
       </c>
       <c r="Z29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -13086,13 +13086,13 @@
         <v>256</v>
       </c>
       <c r="AH29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AI29" t="s">
         <v>174</v>
       </c>
       <c r="AJ29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK29">
         <v>0</v>
@@ -13179,13 +13179,13 @@
         <v>190</v>
       </c>
       <c r="BM29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BN29" t="s">
         <v>174</v>
       </c>
       <c r="BO29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BP29" t="s">
         <v>217</v>
@@ -13221,13 +13221,13 @@
         <v>190</v>
       </c>
       <c r="CB29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CC29" t="s">
         <v>174</v>
       </c>
       <c r="CD29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CE29">
         <v>0</v>
@@ -13460,7 +13460,7 @@
         <v>202</v>
       </c>
       <c r="Z30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA30" t="s">
         <v>216</v>
@@ -13583,7 +13583,7 @@
         <v>202</v>
       </c>
       <c r="BO30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP30" t="s">
         <v>216</v>
@@ -13625,7 +13625,7 @@
         <v>202</v>
       </c>
       <c r="CD30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CE30" t="s">
         <v>216</v>
@@ -14271,28 +14271,28 @@
         <v>174</v>
       </c>
       <c r="Z32" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG32" t="s">
         <v>258</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>257</v>
       </c>
       <c r="AH32" t="s">
         <v>202</v>
@@ -14301,7 +14301,7 @@
         <v>256</v>
       </c>
       <c r="AJ32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AK32">
         <v>0</v>
@@ -14394,7 +14394,7 @@
         <v>174</v>
       </c>
       <c r="BO32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP32" t="s">
         <v>217</v>
@@ -14460,46 +14460,46 @@
         <v>174</v>
       </c>
       <c r="CL32" t="s">
+        <v>257</v>
+      </c>
+      <c r="CM32">
+        <v>0</v>
+      </c>
+      <c r="CN32">
+        <v>0</v>
+      </c>
+      <c r="CO32">
+        <v>0</v>
+      </c>
+      <c r="CP32">
+        <v>0</v>
+      </c>
+      <c r="CQ32">
+        <v>0</v>
+      </c>
+      <c r="CR32">
+        <v>0</v>
+      </c>
+      <c r="CS32">
+        <v>0</v>
+      </c>
+      <c r="CT32">
+        <v>0</v>
+      </c>
+      <c r="CU32">
+        <v>0</v>
+      </c>
+      <c r="CV32">
+        <v>0</v>
+      </c>
+      <c r="CW32">
+        <v>0</v>
+      </c>
+      <c r="CX32">
+        <v>0</v>
+      </c>
+      <c r="CY32" t="s">
         <v>258</v>
-      </c>
-      <c r="CM32">
-        <v>0</v>
-      </c>
-      <c r="CN32">
-        <v>0</v>
-      </c>
-      <c r="CO32">
-        <v>0</v>
-      </c>
-      <c r="CP32">
-        <v>0</v>
-      </c>
-      <c r="CQ32">
-        <v>0</v>
-      </c>
-      <c r="CR32">
-        <v>0</v>
-      </c>
-      <c r="CS32">
-        <v>0</v>
-      </c>
-      <c r="CT32">
-        <v>0</v>
-      </c>
-      <c r="CU32">
-        <v>0</v>
-      </c>
-      <c r="CV32">
-        <v>0</v>
-      </c>
-      <c r="CW32">
-        <v>0</v>
-      </c>
-      <c r="CX32">
-        <v>0</v>
-      </c>
-      <c r="CY32" t="s">
-        <v>257</v>
       </c>
       <c r="CZ32">
         <v>0</v>
@@ -14969,7 +14969,7 @@
         <v>217</v>
       </c>
       <c r="EA33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="EB33" t="s">
         <v>217</v>
@@ -15890,10 +15890,10 @@
         <v>202</v>
       </c>
       <c r="X36" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y36" t="s">
         <v>257</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>258</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -15920,7 +15920,7 @@
         <v>256</v>
       </c>
       <c r="AH36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AI36" t="s">
         <v>217</v>
@@ -16013,10 +16013,10 @@
         <v>202</v>
       </c>
       <c r="BM36" t="s">
+        <v>258</v>
+      </c>
+      <c r="BN36" t="s">
         <v>257</v>
-      </c>
-      <c r="BN36" t="s">
-        <v>258</v>
       </c>
       <c r="BO36" t="s">
         <v>217</v>
@@ -16079,10 +16079,10 @@
         <v>202</v>
       </c>
       <c r="CJ36" t="s">
+        <v>258</v>
+      </c>
+      <c r="CK36" t="s">
         <v>257</v>
-      </c>
-      <c r="CK36" t="s">
-        <v>258</v>
       </c>
       <c r="CL36">
         <v>0</v>
@@ -16130,7 +16130,7 @@
         <v>0</v>
       </c>
       <c r="DA36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="DB36">
         <v>0</v>
@@ -16297,31 +16297,31 @@
         <v>203</v>
       </c>
       <c r="Y37" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z37" t="s">
         <v>257</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG37" t="s">
         <v>258</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>257</v>
       </c>
       <c r="AH37" t="s">
         <v>203</v>
@@ -16330,7 +16330,7 @@
         <v>202</v>
       </c>
       <c r="AJ37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AK37">
         <v>0</v>
@@ -16423,7 +16423,7 @@
         <v>202</v>
       </c>
       <c r="BO37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP37" t="s">
         <v>217</v>
@@ -16489,46 +16489,46 @@
         <v>202</v>
       </c>
       <c r="CL37" t="s">
+        <v>257</v>
+      </c>
+      <c r="CM37">
+        <v>0</v>
+      </c>
+      <c r="CN37">
+        <v>0</v>
+      </c>
+      <c r="CO37">
+        <v>0</v>
+      </c>
+      <c r="CP37">
+        <v>0</v>
+      </c>
+      <c r="CQ37">
+        <v>0</v>
+      </c>
+      <c r="CR37">
+        <v>0</v>
+      </c>
+      <c r="CS37">
+        <v>0</v>
+      </c>
+      <c r="CT37">
+        <v>0</v>
+      </c>
+      <c r="CU37">
+        <v>0</v>
+      </c>
+      <c r="CV37">
+        <v>0</v>
+      </c>
+      <c r="CW37">
+        <v>0</v>
+      </c>
+      <c r="CX37">
+        <v>0</v>
+      </c>
+      <c r="CY37" t="s">
         <v>258</v>
-      </c>
-      <c r="CM37">
-        <v>0</v>
-      </c>
-      <c r="CN37">
-        <v>0</v>
-      </c>
-      <c r="CO37">
-        <v>0</v>
-      </c>
-      <c r="CP37">
-        <v>0</v>
-      </c>
-      <c r="CQ37">
-        <v>0</v>
-      </c>
-      <c r="CR37">
-        <v>0</v>
-      </c>
-      <c r="CS37">
-        <v>0</v>
-      </c>
-      <c r="CT37">
-        <v>0</v>
-      </c>
-      <c r="CU37">
-        <v>0</v>
-      </c>
-      <c r="CV37">
-        <v>0</v>
-      </c>
-      <c r="CW37">
-        <v>0</v>
-      </c>
-      <c r="CX37">
-        <v>0</v>
-      </c>
-      <c r="CY37" t="s">
-        <v>257</v>
       </c>
       <c r="CZ37" t="s">
         <v>217</v>
@@ -16609,7 +16609,7 @@
         <v>179</v>
       </c>
       <c r="EG37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="EH37" t="s">
         <v>216</v>
@@ -16701,7 +16701,7 @@
         <v>256</v>
       </c>
       <c r="Z38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA38" t="s">
         <v>216</v>
@@ -16731,7 +16731,7 @@
         <v>216</v>
       </c>
       <c r="AJ38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AK38" t="s">
         <v>216</v>
@@ -16824,7 +16824,7 @@
         <v>256</v>
       </c>
       <c r="BO38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP38" t="s">
         <v>216</v>
@@ -16866,7 +16866,7 @@
         <v>256</v>
       </c>
       <c r="CD38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CE38" t="s">
         <v>216</v>
@@ -17126,7 +17126,7 @@
         <v>217</v>
       </c>
       <c r="AG39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH39" t="s">
         <v>256</v>
@@ -17333,7 +17333,7 @@
         <v>0</v>
       </c>
       <c r="CY39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CZ39">
         <v>0</v>
@@ -17500,10 +17500,10 @@
         <v>183</v>
       </c>
       <c r="X40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z40" t="s">
         <v>256</v>
@@ -17623,10 +17623,10 @@
         <v>183</v>
       </c>
       <c r="BM40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BN40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BO40" t="s">
         <v>256</v>
@@ -17665,10 +17665,10 @@
         <v>183</v>
       </c>
       <c r="CB40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CC40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CD40" t="s">
         <v>256</v>
@@ -17901,13 +17901,13 @@
         <v>150</v>
       </c>
       <c r="W41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X41" t="s">
         <v>256</v>
       </c>
       <c r="Y41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -18024,13 +18024,13 @@
         <v>0</v>
       </c>
       <c r="BL41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BM41" t="s">
         <v>256</v>
       </c>
       <c r="BN41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BO41" t="s">
         <v>217</v>
@@ -18066,13 +18066,13 @@
         <v>0</v>
       </c>
       <c r="CA41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CB41" t="s">
         <v>256</v>
       </c>
       <c r="CC41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CD41">
         <v>0</v>
@@ -18311,7 +18311,7 @@
         <v>202</v>
       </c>
       <c r="Y42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -18341,7 +18341,7 @@
         <v>202</v>
       </c>
       <c r="AI42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AJ42">
         <v>0</v>
@@ -18434,7 +18434,7 @@
         <v>202</v>
       </c>
       <c r="BN42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BO42" t="s">
         <v>217</v>
@@ -18476,7 +18476,7 @@
         <v>202</v>
       </c>
       <c r="CC42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CD42">
         <v>0</v>
@@ -18703,13 +18703,13 @@
         <v>150</v>
       </c>
       <c r="W43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="X43" t="s">
         <v>216</v>
       </c>
       <c r="Y43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -18826,13 +18826,13 @@
         <v>0</v>
       </c>
       <c r="BL43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BM43" t="s">
         <v>216</v>
       </c>
       <c r="BN43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BO43" t="s">
         <v>217</v>
@@ -18868,13 +18868,13 @@
         <v>0</v>
       </c>
       <c r="CA43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CB43" t="s">
         <v>216</v>
       </c>
       <c r="CC43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CD43">
         <v>0</v>
@@ -19107,7 +19107,7 @@
         <v>150</v>
       </c>
       <c r="W44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="X44" t="s">
         <v>181</v>
@@ -19116,7 +19116,7 @@
         <v>256</v>
       </c>
       <c r="Z44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA44" t="s">
         <v>203</v>
@@ -19230,7 +19230,7 @@
         <v>0</v>
       </c>
       <c r="BL44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BM44" t="s">
         <v>181</v>
@@ -19239,7 +19239,7 @@
         <v>256</v>
       </c>
       <c r="BO44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP44" t="s">
         <v>203</v>
@@ -19320,7 +19320,7 @@
         <v>0</v>
       </c>
       <c r="CQ44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CR44" t="s">
         <v>181</v>
@@ -19329,7 +19329,7 @@
         <v>256</v>
       </c>
       <c r="CT44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CU44" t="s">
         <v>203</v>
@@ -19526,13 +19526,13 @@
         <v>216</v>
       </c>
       <c r="X45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y45" t="s">
         <v>202</v>
       </c>
       <c r="Z45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA45" t="s">
         <v>216</v>
@@ -19649,13 +19649,13 @@
         <v>216</v>
       </c>
       <c r="BM45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN45" t="s">
         <v>202</v>
       </c>
       <c r="BO45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP45" t="s">
         <v>216</v>
@@ -19739,13 +19739,13 @@
         <v>216</v>
       </c>
       <c r="CR45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CS45" t="s">
         <v>202</v>
       </c>
       <c r="CT45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CU45" t="s">
         <v>216</v>
@@ -19933,10 +19933,10 @@
         <v>150</v>
       </c>
       <c r="W46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="X46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y46" t="s">
         <v>256</v>
@@ -20056,10 +20056,10 @@
         <v>0</v>
       </c>
       <c r="BL46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BM46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN46" t="s">
         <v>256</v>
@@ -20146,10 +20146,10 @@
         <v>0</v>
       </c>
       <c r="CQ46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CR46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CS46" t="s">
         <v>256</v>
@@ -20343,10 +20343,10 @@
         <v>216</v>
       </c>
       <c r="X47" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y47" t="s">
         <v>258</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>257</v>
       </c>
       <c r="Z47" t="s">
         <v>216</v>
@@ -20466,10 +20466,10 @@
         <v>216</v>
       </c>
       <c r="BM47" t="s">
+        <v>257</v>
+      </c>
+      <c r="BN47" t="s">
         <v>258</v>
-      </c>
-      <c r="BN47" t="s">
-        <v>257</v>
       </c>
       <c r="BO47" t="s">
         <v>216</v>
@@ -20556,10 +20556,10 @@
         <v>216</v>
       </c>
       <c r="CR47" t="s">
+        <v>257</v>
+      </c>
+      <c r="CS47" t="s">
         <v>258</v>
-      </c>
-      <c r="CS47" t="s">
-        <v>257</v>
       </c>
       <c r="CT47" t="s">
         <v>216</v>
@@ -20756,13 +20756,13 @@
         <v>256</v>
       </c>
       <c r="Y48" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z48" t="s">
         <v>256</v>
       </c>
       <c r="AA48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB48">
         <v>0</v>
@@ -20879,13 +20879,13 @@
         <v>202</v>
       </c>
       <c r="BN48" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BO48" t="s">
         <v>256</v>
       </c>
       <c r="BP48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BQ48" t="s">
         <v>217</v>
@@ -20969,13 +20969,13 @@
         <v>202</v>
       </c>
       <c r="CS48" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CT48" t="s">
         <v>256</v>
       </c>
       <c r="CU48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CV48">
         <v>0</v>
@@ -21169,7 +21169,7 @@
         <v>179</v>
       </c>
       <c r="Z49" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA49" t="s">
         <v>256</v>
@@ -21292,7 +21292,7 @@
         <v>179</v>
       </c>
       <c r="BO49" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BP49" t="s">
         <v>256</v>
@@ -21382,7 +21382,7 @@
         <v>179</v>
       </c>
       <c r="CT49" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CU49" t="s">
         <v>256</v>
@@ -21582,7 +21582,7 @@
         <v>181</v>
       </c>
       <c r="Z50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA50" t="s">
         <v>216</v>
@@ -21705,7 +21705,7 @@
         <v>181</v>
       </c>
       <c r="BO50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP50" t="s">
         <v>216</v>
@@ -21795,7 +21795,7 @@
         <v>181</v>
       </c>
       <c r="CT50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CU50" t="s">
         <v>216</v>
@@ -23088,7 +23088,7 @@
         <v>217</v>
       </c>
       <c r="DQ53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="DR53" t="s">
         <v>217</v>
@@ -23115,7 +23115,7 @@
         <v>217</v>
       </c>
       <c r="DZ53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="EA53" t="s">
         <v>217</v>
@@ -23225,7 +23225,7 @@
         <v>174</v>
       </c>
       <c r="Y54" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         <v>174</v>
       </c>
       <c r="AI54" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AJ54">
         <v>0</v>
@@ -23348,7 +23348,7 @@
         <v>174</v>
       </c>
       <c r="BN54" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BO54" t="s">
         <v>217</v>
@@ -23390,7 +23390,7 @@
         <v>174</v>
       </c>
       <c r="CC54" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CD54">
         <v>0</v>
@@ -23620,10 +23620,10 @@
         <v>190</v>
       </c>
       <c r="X55" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y55" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z55" t="s">
         <v>216</v>
@@ -23650,10 +23650,10 @@
         <v>256</v>
       </c>
       <c r="AH55" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AI55" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AJ55" t="s">
         <v>216</v>
@@ -23743,10 +23743,10 @@
         <v>190</v>
       </c>
       <c r="BM55" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BN55" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BO55" t="s">
         <v>216</v>
@@ -23785,10 +23785,10 @@
         <v>190</v>
       </c>
       <c r="CB55" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CC55" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CD55" t="s">
         <v>216</v>
@@ -24045,7 +24045,7 @@
         <v>217</v>
       </c>
       <c r="AG56" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH56" t="s">
         <v>174</v>
@@ -24252,7 +24252,7 @@
         <v>0</v>
       </c>
       <c r="CY56" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CZ56">
         <v>0</v>
@@ -24419,10 +24419,10 @@
         <v>202</v>
       </c>
       <c r="Y57" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z57" t="s">
         <v>257</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>258</v>
       </c>
       <c r="AA57">
         <v>0</v>
@@ -24449,10 +24449,10 @@
         <v>202</v>
       </c>
       <c r="AI57" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ57" t="s">
         <v>257</v>
-      </c>
-      <c r="AJ57" t="s">
-        <v>258</v>
       </c>
       <c r="AK57">
         <v>0</v>
@@ -24542,10 +24542,10 @@
         <v>202</v>
       </c>
       <c r="BN57" t="s">
+        <v>258</v>
+      </c>
+      <c r="BO57" t="s">
         <v>257</v>
-      </c>
-      <c r="BO57" t="s">
-        <v>258</v>
       </c>
       <c r="BP57" t="s">
         <v>217</v>
@@ -24584,10 +24584,10 @@
         <v>202</v>
       </c>
       <c r="CC57" t="s">
+        <v>258</v>
+      </c>
+      <c r="CD57" t="s">
         <v>257</v>
-      </c>
-      <c r="CD57" t="s">
-        <v>258</v>
       </c>
       <c r="CE57">
         <v>0</v>
@@ -24814,13 +24814,13 @@
         <v>256</v>
       </c>
       <c r="X58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y58" t="s">
         <v>256</v>
       </c>
       <c r="Z58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA58">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>217</v>
       </c>
       <c r="AH58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AI58" t="s">
         <v>256</v>
       </c>
       <c r="AJ58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AK58">
         <v>0</v>
@@ -24937,13 +24937,13 @@
         <v>256</v>
       </c>
       <c r="BM58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN58" t="s">
         <v>256</v>
       </c>
       <c r="BO58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP58" t="s">
         <v>217</v>
@@ -24979,13 +24979,13 @@
         <v>256</v>
       </c>
       <c r="CB58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CC58" t="s">
         <v>256</v>
       </c>
       <c r="CD58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CE58">
         <v>0</v>
@@ -25212,10 +25212,10 @@
         <v>206</v>
       </c>
       <c r="X59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -25242,10 +25242,10 @@
         <v>256</v>
       </c>
       <c r="AH59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AI59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AJ59">
         <v>0</v>
@@ -25335,10 +25335,10 @@
         <v>206</v>
       </c>
       <c r="BM59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BO59" t="s">
         <v>217</v>
@@ -25377,10 +25377,10 @@
         <v>206</v>
       </c>
       <c r="CB59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CC59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CD59">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>217</v>
       </c>
       <c r="BM61" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN61" t="s">
         <v>202</v>
@@ -26167,7 +26167,7 @@
         <v>203</v>
       </c>
       <c r="BQ61" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BR61" t="s">
         <v>217</v>
@@ -26245,7 +26245,7 @@
         <v>0</v>
       </c>
       <c r="CR61" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CS61" t="s">
         <v>202</v>
@@ -26257,7 +26257,7 @@
         <v>203</v>
       </c>
       <c r="CV61" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CW61">
         <v>0</v>
@@ -26442,7 +26442,7 @@
         <v>181</v>
       </c>
       <c r="Z62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA62" t="s">
         <v>203</v>
@@ -26565,7 +26565,7 @@
         <v>181</v>
       </c>
       <c r="BO62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP62" t="s">
         <v>203</v>
@@ -26655,7 +26655,7 @@
         <v>181</v>
       </c>
       <c r="CT62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CU62" t="s">
         <v>203</v>
@@ -26852,7 +26852,7 @@
         <v>256</v>
       </c>
       <c r="Y63" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z63" t="s">
         <v>256</v>
@@ -26861,7 +26861,7 @@
         <v>216</v>
       </c>
       <c r="AB63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>256</v>
       </c>
       <c r="BN63" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BO63" t="s">
         <v>256</v>
@@ -26984,7 +26984,7 @@
         <v>216</v>
       </c>
       <c r="BQ63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BR63" t="s">
         <v>217</v>
@@ -27065,7 +27065,7 @@
         <v>256</v>
       </c>
       <c r="CS63" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CT63" t="s">
         <v>256</v>
@@ -27074,7 +27074,7 @@
         <v>216</v>
       </c>
       <c r="CV63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CW63">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>181</v>
       </c>
       <c r="BO64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP64" t="s">
         <v>169</v>
       </c>
       <c r="BQ64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BR64" t="s">
         <v>174</v>
@@ -27478,13 +27478,13 @@
         <v>203</v>
       </c>
       <c r="CT64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CU64" t="s">
         <v>169</v>
       </c>
       <c r="CV64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CW64" t="s">
         <v>174</v>
@@ -28501,7 +28501,7 @@
         <v>203</v>
       </c>
       <c r="Z67" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA67">
         <v>0</v>
@@ -28531,7 +28531,7 @@
         <v>174</v>
       </c>
       <c r="AJ67" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AK67">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>203</v>
       </c>
       <c r="BO67" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP67" t="s">
         <v>217</v>
@@ -28690,7 +28690,7 @@
         <v>203</v>
       </c>
       <c r="CL67" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CM67">
         <v>0</v>
@@ -28899,7 +28899,7 @@
         <v>197</v>
       </c>
       <c r="X68" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y68" t="s">
         <v>202</v>
@@ -28932,7 +28932,7 @@
         <v>256</v>
       </c>
       <c r="AI68" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AJ68" t="s">
         <v>216</v>
@@ -29022,7 +29022,7 @@
         <v>197</v>
       </c>
       <c r="BM68" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BN68" t="s">
         <v>202</v>
@@ -29088,7 +29088,7 @@
         <v>197</v>
       </c>
       <c r="CJ68" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CK68" t="s">
         <v>202</v>
@@ -29145,7 +29145,7 @@
         <v>0</v>
       </c>
       <c r="DC68" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="DD68">
         <v>0</v>
@@ -29300,7 +29300,7 @@
         <v>150</v>
       </c>
       <c r="W69" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X69" t="s">
         <v>256</v>
@@ -29330,7 +29330,7 @@
         <v>217</v>
       </c>
       <c r="AG69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH69" t="s">
         <v>256</v>
@@ -29423,7 +29423,7 @@
         <v>0</v>
       </c>
       <c r="BL69" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BM69" t="s">
         <v>256</v>
@@ -29489,7 +29489,7 @@
         <v>0</v>
       </c>
       <c r="CI69" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CJ69" t="s">
         <v>256</v>
@@ -29537,7 +29537,7 @@
         <v>0</v>
       </c>
       <c r="CY69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CZ69">
         <v>0</v>
@@ -29573,7 +29573,7 @@
         <v>217</v>
       </c>
       <c r="DS69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="DT69" t="s">
         <v>181</v>
@@ -30153,7 +30153,7 @@
         <v>256</v>
       </c>
       <c r="AH71" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AI71">
         <v>0</v>
@@ -31314,7 +31314,7 @@
         <v>150</v>
       </c>
       <c r="W74" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X74" t="s">
         <v>177</v>
@@ -31344,7 +31344,7 @@
         <v>217</v>
       </c>
       <c r="AG74" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH74" t="s">
         <v>177</v>
@@ -31437,7 +31437,7 @@
         <v>0</v>
       </c>
       <c r="BL74" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BM74" t="s">
         <v>177</v>
@@ -31503,7 +31503,7 @@
         <v>0</v>
       </c>
       <c r="CI74" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CJ74" t="s">
         <v>177</v>
@@ -32110,7 +32110,7 @@
         <v>256</v>
       </c>
       <c r="Y76" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z76" t="s">
         <v>202</v>
@@ -32140,7 +32140,7 @@
         <v>256</v>
       </c>
       <c r="AI76" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AJ76" t="s">
         <v>202</v>
@@ -32233,7 +32233,7 @@
         <v>256</v>
       </c>
       <c r="BN76" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BO76" t="s">
         <v>202</v>
@@ -32299,7 +32299,7 @@
         <v>256</v>
       </c>
       <c r="CK76" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CL76" t="s">
         <v>202</v>
@@ -32900,10 +32900,10 @@
         <v>197</v>
       </c>
       <c r="Y78" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z78" t="s">
         <v>257</v>
-      </c>
-      <c r="Z78" t="s">
-        <v>258</v>
       </c>
       <c r="AA78">
         <v>0</v>
@@ -32930,10 +32930,10 @@
         <v>197</v>
       </c>
       <c r="AI78" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ78" t="s">
         <v>257</v>
-      </c>
-      <c r="AJ78" t="s">
-        <v>258</v>
       </c>
       <c r="AK78">
         <v>0</v>
@@ -33023,10 +33023,10 @@
         <v>197</v>
       </c>
       <c r="BN78" t="s">
+        <v>258</v>
+      </c>
+      <c r="BO78" t="s">
         <v>257</v>
-      </c>
-      <c r="BO78" t="s">
-        <v>258</v>
       </c>
       <c r="BP78" t="s">
         <v>217</v>
@@ -33089,10 +33089,10 @@
         <v>197</v>
       </c>
       <c r="CK78" t="s">
+        <v>258</v>
+      </c>
+      <c r="CL78" t="s">
         <v>257</v>
-      </c>
-      <c r="CL78" t="s">
-        <v>258</v>
       </c>
       <c r="CM78">
         <v>0</v>
@@ -33289,7 +33289,7 @@
         <v>150</v>
       </c>
       <c r="W79" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="X79" t="s">
         <v>190</v>
@@ -33319,7 +33319,7 @@
         <v>217</v>
       </c>
       <c r="AG79" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH79" t="s">
         <v>190</v>
@@ -33412,7 +33412,7 @@
         <v>0</v>
       </c>
       <c r="BL79" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BM79" t="s">
         <v>190</v>
@@ -33478,7 +33478,7 @@
         <v>0</v>
       </c>
       <c r="CI79" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CJ79" t="s">
         <v>190</v>
@@ -33684,7 +33684,7 @@
         <v>150</v>
       </c>
       <c r="W80" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="X80" t="s">
         <v>181</v>
@@ -33714,7 +33714,7 @@
         <v>217</v>
       </c>
       <c r="AG80" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH80" t="s">
         <v>181</v>
@@ -33807,7 +33807,7 @@
         <v>0</v>
       </c>
       <c r="BL80" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BM80" t="s">
         <v>181</v>
@@ -33873,7 +33873,7 @@
         <v>0</v>
       </c>
       <c r="CI80" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CJ80" t="s">
         <v>181</v>
@@ -34085,16 +34085,16 @@
         <v>190</v>
       </c>
       <c r="Y81" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81" t="s">
         <v>257</v>
-      </c>
-      <c r="Z81">
-        <v>0</v>
-      </c>
-      <c r="AA81">
-        <v>0</v>
-      </c>
-      <c r="AB81" t="s">
-        <v>258</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -34115,16 +34115,16 @@
         <v>190</v>
       </c>
       <c r="AI81" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81" t="s">
         <v>257</v>
-      </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
-      <c r="AK81">
-        <v>0</v>
-      </c>
-      <c r="AL81" t="s">
-        <v>258</v>
       </c>
       <c r="AM81">
         <v>0</v>
@@ -34208,16 +34208,16 @@
         <v>190</v>
       </c>
       <c r="BN81" t="s">
+        <v>258</v>
+      </c>
+      <c r="BO81" t="s">
+        <v>217</v>
+      </c>
+      <c r="BP81" t="s">
+        <v>217</v>
+      </c>
+      <c r="BQ81" t="s">
         <v>257</v>
-      </c>
-      <c r="BO81" t="s">
-        <v>217</v>
-      </c>
-      <c r="BP81" t="s">
-        <v>217</v>
-      </c>
-      <c r="BQ81" t="s">
-        <v>258</v>
       </c>
       <c r="BR81" t="s">
         <v>217</v>
@@ -34274,16 +34274,16 @@
         <v>190</v>
       </c>
       <c r="CK81" t="s">
+        <v>258</v>
+      </c>
+      <c r="CL81">
+        <v>0</v>
+      </c>
+      <c r="CM81">
+        <v>0</v>
+      </c>
+      <c r="CN81" t="s">
         <v>257</v>
-      </c>
-      <c r="CL81">
-        <v>0</v>
-      </c>
-      <c r="CM81">
-        <v>0</v>
-      </c>
-      <c r="CN81" t="s">
-        <v>258</v>
       </c>
       <c r="CO81">
         <v>0</v>
@@ -34477,13 +34477,13 @@
         <v>216</v>
       </c>
       <c r="X82" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y82" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z82" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA82" t="s">
         <v>216</v>
@@ -34600,13 +34600,13 @@
         <v>216</v>
       </c>
       <c r="BM82" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN82" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BO82" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP82" t="s">
         <v>216</v>
@@ -34693,13 +34693,13 @@
         <v>216</v>
       </c>
       <c r="CR82" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CS82" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CT82" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CU82" t="s">
         <v>216</v>
@@ -34905,7 +34905,7 @@
         <v>0</v>
       </c>
       <c r="AB83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AC83">
         <v>0</v>
@@ -35016,7 +35016,7 @@
         <v>216</v>
       </c>
       <c r="BM83" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BN83" t="s">
         <v>181</v>
@@ -35028,7 +35028,7 @@
         <v>217</v>
       </c>
       <c r="BQ83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BR83" t="s">
         <v>217</v>
@@ -35109,7 +35109,7 @@
         <v>216</v>
       </c>
       <c r="CR83" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CS83" t="s">
         <v>181</v>
@@ -35121,7 +35121,7 @@
         <v>0</v>
       </c>
       <c r="CV83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CW83">
         <v>0</v>
@@ -36102,43 +36102,43 @@
         <v>178</v>
       </c>
       <c r="X86" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y86" t="s">
         <v>256</v>
       </c>
       <c r="Z86" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH86" t="s">
         <v>258</v>
-      </c>
-      <c r="AA86">
-        <v>0</v>
-      </c>
-      <c r="AB86">
-        <v>0</v>
-      </c>
-      <c r="AC86">
-        <v>0</v>
-      </c>
-      <c r="AD86">
-        <v>0</v>
-      </c>
-      <c r="AE86">
-        <v>0</v>
-      </c>
-      <c r="AF86" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG86" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH86" t="s">
-        <v>257</v>
       </c>
       <c r="AI86" t="s">
         <v>256</v>
       </c>
       <c r="AJ86" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AK86">
         <v>0</v>
@@ -36225,13 +36225,13 @@
         <v>178</v>
       </c>
       <c r="BM86" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BN86" t="s">
         <v>256</v>
       </c>
       <c r="BO86" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP86" t="s">
         <v>217</v>
@@ -36267,13 +36267,13 @@
         <v>178</v>
       </c>
       <c r="CB86" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CC86" t="s">
         <v>256</v>
       </c>
       <c r="CD86" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CE86">
         <v>0</v>
@@ -36336,7 +36336,7 @@
         <v>0</v>
       </c>
       <c r="CY86" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CZ86">
         <v>0</v>
@@ -36497,13 +36497,13 @@
         <v>150</v>
       </c>
       <c r="W87" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X87" t="s">
         <v>256</v>
       </c>
       <c r="Y87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z87" t="s">
         <v>216</v>
@@ -36533,7 +36533,7 @@
         <v>256</v>
       </c>
       <c r="AI87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AJ87" t="s">
         <v>216</v>
@@ -36620,13 +36620,13 @@
         <v>0</v>
       </c>
       <c r="BL87" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BM87" t="s">
         <v>256</v>
       </c>
       <c r="BN87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BO87" t="s">
         <v>216</v>
@@ -36662,13 +36662,13 @@
         <v>0</v>
       </c>
       <c r="CA87" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CB87" t="s">
         <v>256</v>
       </c>
       <c r="CC87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CD87" t="s">
         <v>216</v>
@@ -36770,7 +36770,7 @@
         <v>217</v>
       </c>
       <c r="DS87" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="DT87" t="s">
         <v>193</v>
@@ -36895,7 +36895,7 @@
         <v>150</v>
       </c>
       <c r="W88" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X88" t="s">
         <v>216</v>
@@ -37018,7 +37018,7 @@
         <v>0</v>
       </c>
       <c r="BL88" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BM88" t="s">
         <v>216</v>
@@ -37060,7 +37060,7 @@
         <v>0</v>
       </c>
       <c r="CA88" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CB88" t="s">
         <v>216</v>
@@ -37296,7 +37296,7 @@
         <v>174</v>
       </c>
       <c r="X89" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y89">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>217</v>
       </c>
       <c r="AH89" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AI89">
         <v>0</v>
@@ -37419,7 +37419,7 @@
         <v>174</v>
       </c>
       <c r="BM89" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN89" t="s">
         <v>217</v>
@@ -37461,7 +37461,7 @@
         <v>174</v>
       </c>
       <c r="CB89" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CC89">
         <v>0</v>
@@ -37605,7 +37605,7 @@
         <v>0</v>
       </c>
       <c r="EF89" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="EG89" t="s">
         <v>217</v>
@@ -37697,13 +37697,13 @@
         <v>181</v>
       </c>
       <c r="Y90" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA90" t="s">
         <v>257</v>
-      </c>
-      <c r="Z90" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA90" t="s">
-        <v>258</v>
       </c>
       <c r="AB90" t="s">
         <v>216</v>
@@ -37730,10 +37730,10 @@
         <v>256</v>
       </c>
       <c r="AJ90" t="s">
+        <v>258</v>
+      </c>
+      <c r="AK90" t="s">
         <v>257</v>
-      </c>
-      <c r="AK90" t="s">
-        <v>258</v>
       </c>
       <c r="AL90" t="s">
         <v>216</v>
@@ -37820,13 +37820,13 @@
         <v>181</v>
       </c>
       <c r="BN90" t="s">
+        <v>258</v>
+      </c>
+      <c r="BO90" t="s">
+        <v>258</v>
+      </c>
+      <c r="BP90" t="s">
         <v>257</v>
-      </c>
-      <c r="BO90" t="s">
-        <v>257</v>
-      </c>
-      <c r="BP90" t="s">
-        <v>258</v>
       </c>
       <c r="BQ90" t="s">
         <v>216</v>
@@ -37862,13 +37862,13 @@
         <v>181</v>
       </c>
       <c r="CC90" t="s">
+        <v>258</v>
+      </c>
+      <c r="CD90" t="s">
+        <v>258</v>
+      </c>
+      <c r="CE90" t="s">
         <v>257</v>
-      </c>
-      <c r="CD90" t="s">
-        <v>257</v>
-      </c>
-      <c r="CE90" t="s">
-        <v>258</v>
       </c>
       <c r="CF90" t="s">
         <v>216</v>
@@ -38098,7 +38098,7 @@
         <v>202</v>
       </c>
       <c r="Y91" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z91" t="s">
         <v>256</v>
@@ -38122,13 +38122,13 @@
         <v>217</v>
       </c>
       <c r="AG91" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH91" t="s">
         <v>202</v>
       </c>
       <c r="AI91" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AJ91" t="s">
         <v>256</v>
@@ -38221,7 +38221,7 @@
         <v>202</v>
       </c>
       <c r="BN91" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BO91" t="s">
         <v>256</v>
@@ -38263,7 +38263,7 @@
         <v>202</v>
       </c>
       <c r="CC91" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CD91" t="s">
         <v>256</v>
@@ -38329,7 +38329,7 @@
         <v>0</v>
       </c>
       <c r="CY91" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CZ91">
         <v>0</v>
@@ -38520,7 +38520,7 @@
         <v>217</v>
       </c>
       <c r="AG92" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH92" t="s">
         <v>256</v>
@@ -38727,7 +38727,7 @@
         <v>0</v>
       </c>
       <c r="CY92" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CZ92">
         <v>0</v>
@@ -38918,7 +38918,7 @@
         <v>256</v>
       </c>
       <c r="AH93" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AI93" t="s">
         <v>216</v>
@@ -39131,7 +39131,7 @@
         <v>0</v>
       </c>
       <c r="DA93" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="DB93">
         <v>0</v>
@@ -39699,11 +39699,11 @@
         <v>174</v>
       </c>
       <c r="Z95" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA95" t="s">
         <v>257</v>
       </c>
-      <c r="AA95" t="s">
-        <v>258</v>
-      </c>
       <c r="AB95">
         <v>0</v>
       </c>
@@ -39723,16 +39723,16 @@
         <v>217</v>
       </c>
       <c r="AH95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AI95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AJ95" t="s">
         <v>256</v>
       </c>
       <c r="AK95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL95">
         <v>0</v>
@@ -39822,10 +39822,10 @@
         <v>174</v>
       </c>
       <c r="BO95" t="s">
+        <v>258</v>
+      </c>
+      <c r="BP95" t="s">
         <v>257</v>
-      </c>
-      <c r="BP95" t="s">
-        <v>258</v>
       </c>
       <c r="BQ95" t="s">
         <v>217</v>
@@ -39867,11 +39867,11 @@
         <v>174</v>
       </c>
       <c r="CD95" t="s">
+        <v>258</v>
+      </c>
+      <c r="CE95" t="s">
         <v>257</v>
       </c>
-      <c r="CE95" t="s">
-        <v>258</v>
-      </c>
       <c r="CF95">
         <v>0</v>
       </c>
@@ -39936,13 +39936,13 @@
         <v>0</v>
       </c>
       <c r="DA95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="DB95">
         <v>0</v>
       </c>
       <c r="DC95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="DD95">
         <v>0</v>
@@ -40495,7 +40495,7 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X97" t="s">
         <v>203</v>
@@ -40618,7 +40618,7 @@
         <v>0</v>
       </c>
       <c r="BL97" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BM97" t="s">
         <v>203</v>
@@ -40663,7 +40663,7 @@
         <v>0</v>
       </c>
       <c r="CA97" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CB97" t="s">
         <v>203</v>
@@ -41692,7 +41692,7 @@
         <v>193</v>
       </c>
       <c r="Y100" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z100" t="s">
         <v>216</v>
@@ -41722,7 +41722,7 @@
         <v>193</v>
       </c>
       <c r="AI100" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AJ100" t="s">
         <v>216</v>
@@ -41815,7 +41815,7 @@
         <v>193</v>
       </c>
       <c r="BN100" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BO100" t="s">
         <v>216</v>
@@ -41884,7 +41884,7 @@
         <v>193</v>
       </c>
       <c r="CK100" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CL100" t="s">
         <v>216</v>
@@ -42090,7 +42090,7 @@
         <v>256</v>
       </c>
       <c r="Z101" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA101" t="s">
         <v>216</v>
@@ -42120,7 +42120,7 @@
         <v>256</v>
       </c>
       <c r="AJ101" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AK101" t="s">
         <v>216</v>
@@ -42213,7 +42213,7 @@
         <v>256</v>
       </c>
       <c r="BO101" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP101" t="s">
         <v>216</v>
@@ -42282,7 +42282,7 @@
         <v>256</v>
       </c>
       <c r="CL101" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CM101" t="s">
         <v>216</v>
@@ -42479,13 +42479,13 @@
         <v>0</v>
       </c>
       <c r="X102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA102" t="s">
         <v>256</v>
@@ -42509,13 +42509,13 @@
         <v>0</v>
       </c>
       <c r="AH102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AI102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AJ102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AK102" t="s">
         <v>256</v>
@@ -42602,13 +42602,13 @@
         <v>217</v>
       </c>
       <c r="BM102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BO102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP102" t="s">
         <v>256</v>
@@ -42671,13 +42671,13 @@
         <v>0</v>
       </c>
       <c r="CJ102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CK102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CL102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CM102" t="s">
         <v>256</v>
@@ -42880,7 +42880,7 @@
         <v>203</v>
       </c>
       <c r="Z103" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA103" t="s">
         <v>216</v>
@@ -42910,7 +42910,7 @@
         <v>203</v>
       </c>
       <c r="AJ103" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AK103" t="s">
         <v>216</v>
@@ -43003,7 +43003,7 @@
         <v>203</v>
       </c>
       <c r="BO103" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP103" t="s">
         <v>216</v>
@@ -43072,7 +43072,7 @@
         <v>203</v>
       </c>
       <c r="CL103" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CM103" t="s">
         <v>216</v>
@@ -43664,7 +43664,7 @@
         <v>206</v>
       </c>
       <c r="Y105" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z105" t="s">
         <v>216</v>
@@ -43694,7 +43694,7 @@
         <v>206</v>
       </c>
       <c r="AI105" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AJ105" t="s">
         <v>216</v>
@@ -43787,7 +43787,7 @@
         <v>206</v>
       </c>
       <c r="BN105" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BO105" t="s">
         <v>216</v>
@@ -43856,7 +43856,7 @@
         <v>206</v>
       </c>
       <c r="CK105" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CL105" t="s">
         <v>216</v>
@@ -44059,7 +44059,7 @@
         <v>256</v>
       </c>
       <c r="Y106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z106" t="s">
         <v>216</v>
@@ -44083,13 +44083,13 @@
         <v>217</v>
       </c>
       <c r="AG106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH106" t="s">
         <v>256</v>
       </c>
       <c r="AI106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AJ106" t="s">
         <v>216</v>
@@ -44182,7 +44182,7 @@
         <v>256</v>
       </c>
       <c r="BN106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BO106" t="s">
         <v>216</v>
@@ -44227,7 +44227,7 @@
         <v>256</v>
       </c>
       <c r="CC106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CD106" t="s">
         <v>216</v>
@@ -44293,7 +44293,7 @@
         <v>0</v>
       </c>
       <c r="CY106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CZ106">
         <v>0</v>
@@ -44481,7 +44481,7 @@
         <v>217</v>
       </c>
       <c r="AG107" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH107" t="s">
         <v>216</v>
@@ -44691,7 +44691,7 @@
         <v>0</v>
       </c>
       <c r="CY107" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CZ107">
         <v>0</v>
@@ -44766,7 +44766,7 @@
         <v>0</v>
       </c>
       <c r="EF107" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="EG107" t="s">
         <v>217</v>
@@ -44858,7 +44858,7 @@
         <v>203</v>
       </c>
       <c r="Z108" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA108" t="s">
         <v>202</v>
@@ -44879,7 +44879,7 @@
         <v>217</v>
       </c>
       <c r="AG108" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH108" t="s">
         <v>202</v>
@@ -44888,7 +44888,7 @@
         <v>203</v>
       </c>
       <c r="AJ108" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK108" t="s">
         <v>174</v>
@@ -44981,7 +44981,7 @@
         <v>203</v>
       </c>
       <c r="BO108" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BP108" t="s">
         <v>202</v>
@@ -45026,7 +45026,7 @@
         <v>203</v>
       </c>
       <c r="CD108" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CE108" t="s">
         <v>202</v>
@@ -45089,7 +45089,7 @@
         <v>0</v>
       </c>
       <c r="CY108" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CZ108">
         <v>0</v>
@@ -45280,7 +45280,7 @@
         <v>217</v>
       </c>
       <c r="AG109" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH109" t="s">
         <v>256</v>
@@ -45490,7 +45490,7 @@
         <v>0</v>
       </c>
       <c r="CY109" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CZ109">
         <v>0</v>
@@ -45651,7 +45651,7 @@
         <v>174</v>
       </c>
       <c r="X110" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y110" t="s">
         <v>216</v>
@@ -45681,7 +45681,7 @@
         <v>256</v>
       </c>
       <c r="AH110" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AI110" t="s">
         <v>216</v>
@@ -45774,7 +45774,7 @@
         <v>174</v>
       </c>
       <c r="BM110" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN110" t="s">
         <v>216</v>
@@ -45819,7 +45819,7 @@
         <v>174</v>
       </c>
       <c r="CB110" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CC110" t="s">
         <v>216</v>
@@ -45924,7 +45924,7 @@
         <v>217</v>
       </c>
       <c r="DS110" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="DT110" t="s">
         <v>177</v>
@@ -46076,7 +46076,7 @@
         <v>217</v>
       </c>
       <c r="AG111" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH111" t="s">
         <v>202</v>
@@ -46286,7 +46286,7 @@
         <v>0</v>
       </c>
       <c r="CY111" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CZ111">
         <v>0</v>
@@ -46447,7 +46447,7 @@
         <v>169</v>
       </c>
       <c r="X112" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y112" t="s">
         <v>202</v>
@@ -46477,7 +46477,7 @@
         <v>216</v>
       </c>
       <c r="AH112" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AI112" t="s">
         <v>202</v>
@@ -46570,7 +46570,7 @@
         <v>169</v>
       </c>
       <c r="BM112" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BN112" t="s">
         <v>202</v>
@@ -46615,7 +46615,7 @@
         <v>169</v>
       </c>
       <c r="CB112" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CC112" t="s">
         <v>202</v>
@@ -46848,10 +46848,10 @@
         <v>203</v>
       </c>
       <c r="Y113" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z113" t="s">
         <v>257</v>
-      </c>
-      <c r="Z113" t="s">
-        <v>258</v>
       </c>
       <c r="AA113" t="s">
         <v>216</v>
@@ -46878,10 +46878,10 @@
         <v>203</v>
       </c>
       <c r="AI113" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ113" t="s">
         <v>257</v>
-      </c>
-      <c r="AJ113" t="s">
-        <v>258</v>
       </c>
       <c r="AK113" t="s">
         <v>216</v>
@@ -46971,10 +46971,10 @@
         <v>203</v>
       </c>
       <c r="BN113" t="s">
+        <v>258</v>
+      </c>
+      <c r="BO113" t="s">
         <v>257</v>
-      </c>
-      <c r="BO113" t="s">
-        <v>258</v>
       </c>
       <c r="BP113" t="s">
         <v>216</v>
@@ -47016,10 +47016,10 @@
         <v>203</v>
       </c>
       <c r="CC113" t="s">
+        <v>258</v>
+      </c>
+      <c r="CD113" t="s">
         <v>257</v>
-      </c>
-      <c r="CD113" t="s">
-        <v>258</v>
       </c>
       <c r="CE113" t="s">
         <v>216</v>
@@ -47118,7 +47118,7 @@
         <v>217</v>
       </c>
       <c r="DS113" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="DT113" t="s">
         <v>207</v>
@@ -47243,13 +47243,13 @@
         <v>198</v>
       </c>
       <c r="X114" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y114" t="s">
         <v>216</v>
       </c>
       <c r="Z114" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AA114">
         <v>0</v>
@@ -47273,7 +47273,7 @@
         <v>202</v>
       </c>
       <c r="AH114" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AI114" t="s">
         <v>216</v>
@@ -47366,13 +47366,13 @@
         <v>198</v>
       </c>
       <c r="BM114" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN114" t="s">
         <v>216</v>
       </c>
       <c r="BO114" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP114" t="s">
         <v>217</v>
@@ -47411,13 +47411,13 @@
         <v>198</v>
       </c>
       <c r="CB114" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CC114" t="s">
         <v>216</v>
       </c>
       <c r="CD114" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CE114">
         <v>0</v>
@@ -48042,37 +48042,37 @@
         <v>202</v>
       </c>
       <c r="Y116" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
+      </c>
+      <c r="AB116">
+        <v>0</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
+      <c r="AD116">
+        <v>0</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
+      </c>
+      <c r="AF116" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG116" t="s">
         <v>258</v>
-      </c>
-      <c r="Z116">
-        <v>0</v>
-      </c>
-      <c r="AA116">
-        <v>0</v>
-      </c>
-      <c r="AB116">
-        <v>0</v>
-      </c>
-      <c r="AC116">
-        <v>0</v>
-      </c>
-      <c r="AD116">
-        <v>0</v>
-      </c>
-      <c r="AE116">
-        <v>0</v>
-      </c>
-      <c r="AF116" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG116" t="s">
-        <v>257</v>
       </c>
       <c r="AH116" t="s">
         <v>174</v>
       </c>
       <c r="AI116" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AJ116">
         <v>0</v>
@@ -48165,7 +48165,7 @@
         <v>202</v>
       </c>
       <c r="BN116" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BO116" t="s">
         <v>217</v>
@@ -48210,73 +48210,73 @@
         <v>202</v>
       </c>
       <c r="CC116" t="s">
+        <v>257</v>
+      </c>
+      <c r="CD116">
+        <v>0</v>
+      </c>
+      <c r="CE116">
+        <v>0</v>
+      </c>
+      <c r="CF116">
+        <v>0</v>
+      </c>
+      <c r="CG116">
+        <v>0</v>
+      </c>
+      <c r="CH116">
+        <v>0</v>
+      </c>
+      <c r="CI116">
+        <v>0</v>
+      </c>
+      <c r="CJ116">
+        <v>0</v>
+      </c>
+      <c r="CK116">
+        <v>0</v>
+      </c>
+      <c r="CL116">
+        <v>0</v>
+      </c>
+      <c r="CM116">
+        <v>0</v>
+      </c>
+      <c r="CN116">
+        <v>0</v>
+      </c>
+      <c r="CO116">
+        <v>0</v>
+      </c>
+      <c r="CP116">
+        <v>0</v>
+      </c>
+      <c r="CQ116">
+        <v>0</v>
+      </c>
+      <c r="CR116">
+        <v>0</v>
+      </c>
+      <c r="CS116">
+        <v>0</v>
+      </c>
+      <c r="CT116">
+        <v>0</v>
+      </c>
+      <c r="CU116">
+        <v>0</v>
+      </c>
+      <c r="CV116">
+        <v>0</v>
+      </c>
+      <c r="CW116">
+        <v>0</v>
+      </c>
+      <c r="CX116">
+        <v>0</v>
+      </c>
+      <c r="CY116" t="s">
         <v>258</v>
-      </c>
-      <c r="CD116">
-        <v>0</v>
-      </c>
-      <c r="CE116">
-        <v>0</v>
-      </c>
-      <c r="CF116">
-        <v>0</v>
-      </c>
-      <c r="CG116">
-        <v>0</v>
-      </c>
-      <c r="CH116">
-        <v>0</v>
-      </c>
-      <c r="CI116">
-        <v>0</v>
-      </c>
-      <c r="CJ116">
-        <v>0</v>
-      </c>
-      <c r="CK116">
-        <v>0</v>
-      </c>
-      <c r="CL116">
-        <v>0</v>
-      </c>
-      <c r="CM116">
-        <v>0</v>
-      </c>
-      <c r="CN116">
-        <v>0</v>
-      </c>
-      <c r="CO116">
-        <v>0</v>
-      </c>
-      <c r="CP116">
-        <v>0</v>
-      </c>
-      <c r="CQ116">
-        <v>0</v>
-      </c>
-      <c r="CR116">
-        <v>0</v>
-      </c>
-      <c r="CS116">
-        <v>0</v>
-      </c>
-      <c r="CT116">
-        <v>0</v>
-      </c>
-      <c r="CU116">
-        <v>0</v>
-      </c>
-      <c r="CV116">
-        <v>0</v>
-      </c>
-      <c r="CW116">
-        <v>0</v>
-      </c>
-      <c r="CX116">
-        <v>0</v>
-      </c>
-      <c r="CY116" t="s">
-        <v>257</v>
       </c>
       <c r="CZ116">
         <v>0</v>
@@ -50089,7 +50089,7 @@
         <v>181</v>
       </c>
       <c r="X121" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y121" t="s">
         <v>216</v>
@@ -50119,7 +50119,7 @@
         <v>181</v>
       </c>
       <c r="AH121" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AI121" t="s">
         <v>216</v>
@@ -50212,7 +50212,7 @@
         <v>181</v>
       </c>
       <c r="BM121" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN121" t="s">
         <v>216</v>
@@ -50257,7 +50257,7 @@
         <v>181</v>
       </c>
       <c r="CB121" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CC121" t="s">
         <v>216</v>
@@ -51304,7 +51304,7 @@
         <v>0</v>
       </c>
       <c r="W124" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X124" t="s">
         <v>256</v>
@@ -51334,7 +51334,7 @@
         <v>217</v>
       </c>
       <c r="AG124" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AH124" t="s">
         <v>256</v>
@@ -51427,7 +51427,7 @@
         <v>0</v>
       </c>
       <c r="BL124" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BM124" t="s">
         <v>256</v>
@@ -51472,7 +51472,7 @@
         <v>0</v>
       </c>
       <c r="CA124" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CB124" t="s">
         <v>256</v>
@@ -51729,7 +51729,7 @@
         <v>217</v>
       </c>
       <c r="AG125" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH125" t="s">
         <v>202</v>
@@ -51939,7 +51939,7 @@
         <v>0</v>
       </c>
       <c r="CY125" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CZ125">
         <v>0</v>
@@ -52525,7 +52525,7 @@
         <v>217</v>
       </c>
       <c r="AG127" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH127" t="s">
         <v>256</v>
@@ -52735,7 +52735,7 @@
         <v>0</v>
       </c>
       <c r="CY127" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CZ127">
         <v>0</v>
@@ -53208,7 +53208,7 @@
         <v>0</v>
       </c>
       <c r="EF128" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="EG128" t="s">
         <v>217</v>
@@ -54491,7 +54491,7 @@
         <v>202</v>
       </c>
       <c r="Y132" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z132" t="s">
         <v>216</v>
@@ -54521,7 +54521,7 @@
         <v>202</v>
       </c>
       <c r="AI132" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AJ132" t="s">
         <v>216</v>
@@ -54614,7 +54614,7 @@
         <v>202</v>
       </c>
       <c r="BN132" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BO132" t="s">
         <v>216</v>
@@ -54659,7 +54659,7 @@
         <v>202</v>
       </c>
       <c r="CC132" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CD132" t="s">
         <v>216</v>
@@ -54886,10 +54886,10 @@
         <v>202</v>
       </c>
       <c r="X133" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y133" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z133">
         <v>0</v>
@@ -54916,10 +54916,10 @@
         <v>217</v>
       </c>
       <c r="AH133" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AI133" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AJ133">
         <v>0</v>
@@ -55009,10 +55009,10 @@
         <v>202</v>
       </c>
       <c r="BM133" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN133" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BO133" t="s">
         <v>217</v>
@@ -55054,10 +55054,10 @@
         <v>202</v>
       </c>
       <c r="CB133" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CC133" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CD133">
         <v>0</v>
@@ -55198,7 +55198,7 @@
         <v>0</v>
       </c>
       <c r="EF133" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="EG133" t="s">
         <v>217</v>
@@ -55284,7 +55284,7 @@
         <v>256</v>
       </c>
       <c r="X134" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y134">
         <v>0</v>
@@ -55314,7 +55314,7 @@
         <v>216</v>
       </c>
       <c r="AH134" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AI134">
         <v>0</v>
@@ -55407,7 +55407,7 @@
         <v>256</v>
       </c>
       <c r="BM134" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BN134" t="s">
         <v>217</v>
@@ -55452,7 +55452,7 @@
         <v>256</v>
       </c>
       <c r="CB134" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CC134">
         <v>0</v>
@@ -55557,7 +55557,7 @@
         <v>217</v>
       </c>
       <c r="DS134" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="DT134" t="s">
         <v>181</v>
@@ -55685,11 +55685,11 @@
         <v>256</v>
       </c>
       <c r="Y135" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z135" t="s">
         <v>257</v>
       </c>
-      <c r="Z135" t="s">
-        <v>258</v>
-      </c>
       <c r="AA135">
         <v>0</v>
       </c>
@@ -55709,16 +55709,16 @@
         <v>217</v>
       </c>
       <c r="AG135" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH135" t="s">
         <v>256</v>
       </c>
       <c r="AI135" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ135" t="s">
         <v>257</v>
-      </c>
-      <c r="AJ135" t="s">
-        <v>258</v>
       </c>
       <c r="AK135">
         <v>0</v>
@@ -55808,10 +55808,10 @@
         <v>256</v>
       </c>
       <c r="BN135" t="s">
+        <v>258</v>
+      </c>
+      <c r="BO135" t="s">
         <v>257</v>
-      </c>
-      <c r="BO135" t="s">
-        <v>258</v>
       </c>
       <c r="BP135" t="s">
         <v>217</v>
@@ -55853,11 +55853,11 @@
         <v>256</v>
       </c>
       <c r="CC135" t="s">
+        <v>258</v>
+      </c>
+      <c r="CD135" t="s">
         <v>257</v>
       </c>
-      <c r="CD135" t="s">
-        <v>258</v>
-      </c>
       <c r="CE135">
         <v>0</v>
       </c>
@@ -55919,7 +55919,7 @@
         <v>0</v>
       </c>
       <c r="CY135" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CZ135">
         <v>0</v>
@@ -56077,13 +56077,13 @@
         <v>0</v>
       </c>
       <c r="W136" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X136" t="s">
         <v>256</v>
       </c>
       <c r="Y136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z136" t="s">
         <v>216</v>
@@ -56113,7 +56113,7 @@
         <v>256</v>
       </c>
       <c r="AI136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AJ136" t="s">
         <v>216</v>
@@ -56200,13 +56200,13 @@
         <v>0</v>
       </c>
       <c r="BL136" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BM136" t="s">
         <v>256</v>
       </c>
       <c r="BN136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BO136" t="s">
         <v>216</v>
@@ -56245,13 +56245,13 @@
         <v>0</v>
       </c>
       <c r="CA136" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CB136" t="s">
         <v>256</v>
       </c>
       <c r="CC136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CD136" t="s">
         <v>216</v>
@@ -56490,7 +56490,7 @@
         <v>202</v>
       </c>
       <c r="AB137" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AC137">
         <v>0</v>
@@ -56520,7 +56520,7 @@
         <v>202</v>
       </c>
       <c r="AL137" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM137">
         <v>0</v>
@@ -56613,7 +56613,7 @@
         <v>202</v>
       </c>
       <c r="BQ137" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BR137" t="s">
         <v>217</v>
@@ -56658,7 +56658,7 @@
         <v>202</v>
       </c>
       <c r="CF137" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CG137">
         <v>0</v>
@@ -57298,7 +57298,7 @@
         <v>0</v>
       </c>
       <c r="W139" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="X139" t="s">
         <v>256</v>
@@ -57699,7 +57699,7 @@
         <v>181</v>
       </c>
       <c r="X140" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y140" t="s">
         <v>216</v>
@@ -57822,7 +57822,7 @@
         <v>181</v>
       </c>
       <c r="BM140" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BN140" t="s">
         <v>216</v>
@@ -57867,7 +57867,7 @@
         <v>181</v>
       </c>
       <c r="CB140" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CC140" t="s">
         <v>216</v>
